--- a/data/trans_dic/P2A_ner_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.04416094894590446</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02946038265745378</v>
+        <v>0.02946038265745377</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009138967233927171</v>
+        <v>0.008704052732848645</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02048028340686811</v>
+        <v>0.02019348599999317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0164091831146614</v>
+        <v>0.01588720441269758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02200205332658691</v>
+        <v>0.0233450023366536</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006100863384069922</v>
+        <v>0.00607728610381178</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01219857349820568</v>
+        <v>0.01196120638606089</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03852065785254367</v>
+        <v>0.03804468967720175</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01302750095261015</v>
+        <v>0.01237769390549683</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009952828994109715</v>
+        <v>0.009552698851812006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02108087440562351</v>
+        <v>0.0207921112396658</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0297632844519066</v>
+        <v>0.03033961588790743</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0203822291341907</v>
+        <v>0.02082628492405837</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03260955222161043</v>
+        <v>0.03216385772272595</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05761642562138692</v>
+        <v>0.05840056151423953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04971301028160627</v>
+        <v>0.05258762765254561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05720169401888207</v>
+        <v>0.06021593638839146</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03860494218817134</v>
+        <v>0.03381011023743689</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05159980633403748</v>
+        <v>0.05207941783444434</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09510254201931943</v>
+        <v>0.09624232407360142</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03537714107499879</v>
+        <v>0.03478050096113319</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02769555617679468</v>
+        <v>0.02724173856858283</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04792290067850849</v>
+        <v>0.0485217837462054</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06222799693801125</v>
+        <v>0.06282796327018589</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04078531125434945</v>
+        <v>0.0399993980372215</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03956690544256822</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03416890788614902</v>
+        <v>0.03416890788614903</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01890171512670493</v>
+        <v>0.01803153295295002</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0243984994778008</v>
+        <v>0.02324330407831996</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02090039669586781</v>
+        <v>0.01987810208018491</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01374138011879521</v>
+        <v>0.01257523842879193</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01923662390425596</v>
+        <v>0.01867477771763509</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02469149901245626</v>
+        <v>0.02600905334832356</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02426214035703104</v>
+        <v>0.02626542716583589</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02933100787375697</v>
+        <v>0.02807590728050211</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02238807343792091</v>
+        <v>0.02302170081631565</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02863224142822125</v>
+        <v>0.02952790331523046</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02680979380842669</v>
+        <v>0.02696001129830099</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02290268443293101</v>
+        <v>0.02467262537315539</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05574137227902558</v>
+        <v>0.05797457849252622</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06583691858773545</v>
+        <v>0.06460935511869963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05979548597299499</v>
+        <v>0.05833856408185507</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05041336578459218</v>
+        <v>0.05023771678060279</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05765851054463786</v>
+        <v>0.05791860872845209</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07483009141667084</v>
+        <v>0.07520512335632447</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0677004245592034</v>
+        <v>0.06813534694572443</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06731933509285623</v>
+        <v>0.06561859111194981</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04838383165586754</v>
+        <v>0.04933317007625537</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06222393936804847</v>
+        <v>0.06159811991140874</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05634835515355473</v>
+        <v>0.05550141103589277</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04911057898204987</v>
+        <v>0.0492313923273015</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.05685965740468825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.0412565187460981</v>
+        <v>0.04125651874609809</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05449274149456114</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01778981483460386</v>
+        <v>0.01745818758932912</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02024667102962424</v>
+        <v>0.02115111648509943</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0383562660798619</v>
+        <v>0.03878885568319548</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02566782155892359</v>
+        <v>0.02483177899819852</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02364023431171727</v>
+        <v>0.02475625225242156</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01934049950454922</v>
+        <v>0.01975737902535575</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08980038907402707</v>
+        <v>0.09359713150378417</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02891744927558493</v>
+        <v>0.02874244715427832</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02341430599721439</v>
+        <v>0.02345169631392699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02434499845784245</v>
+        <v>0.02269960106479772</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05857447144323649</v>
+        <v>0.05834867214766438</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0310024459302476</v>
+        <v>0.03077107330116012</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04534915509847236</v>
+        <v>0.04571596942177964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04962268664192834</v>
+        <v>0.04951606239787228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08076782457189499</v>
+        <v>0.07961123188922214</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06864580353292395</v>
+        <v>0.06554706399014847</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0978406793354407</v>
+        <v>0.1056303831130754</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07079898834295349</v>
+        <v>0.07022291577976715</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.208177235889698</v>
+        <v>0.2046212747167218</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07839122239590811</v>
+        <v>0.08025468018036051</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05075139020744254</v>
+        <v>0.05331920454173217</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04763550280953007</v>
+        <v>0.04673884090836038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1034944103180152</v>
+        <v>0.09990211978204885</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06055592675519818</v>
+        <v>0.0619868564816129</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02297700060871281</v>
+        <v>0.02167757954982718</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01510203720415198</v>
+        <v>0.01525610140598216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03522584097945577</v>
+        <v>0.03550804426318199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02154318348473667</v>
+        <v>0.0212389490530498</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03102524913525039</v>
+        <v>0.03004969906392773</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03397913034833634</v>
+        <v>0.03499864959024211</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07176829027603701</v>
+        <v>0.07328862772148444</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03239246203301304</v>
+        <v>0.03292700974788963</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02812833842095569</v>
+        <v>0.02782648254461476</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02542100953445409</v>
+        <v>0.02583232760796444</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05389247302965427</v>
+        <v>0.0547438513367899</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0289842757670032</v>
+        <v>0.02906341189062022</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0432264551384426</v>
+        <v>0.04267458979574492</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03475106547517132</v>
+        <v>0.0350653903521491</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06011303053715432</v>
+        <v>0.06088306751270737</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04132235143677124</v>
+        <v>0.04138002465264097</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06114875818632334</v>
+        <v>0.0637458068743362</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06560173311329279</v>
+        <v>0.06723092995249401</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1119141120648882</v>
+        <v>0.1135239393089468</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05584142756275461</v>
+        <v>0.05671269663340683</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04557168948456621</v>
+        <v>0.04555279561033441</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04232409231333643</v>
+        <v>0.04269773730289751</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07797298638843184</v>
+        <v>0.07876462367551669</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04328456767007992</v>
+        <v>0.04426956193651093</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01683856549681697</v>
+        <v>0.01754903812532041</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01964830899143107</v>
+        <v>0.0227530203476508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0373060046186198</v>
+        <v>0.03731296519377963</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02856055234440772</v>
+        <v>0.02767567351986999</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03500794647265025</v>
+        <v>0.03635398632069759</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04748546595093615</v>
+        <v>0.04720063641711325</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1365069873389186</v>
+        <v>0.1383599110043995</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04919285266604136</v>
+        <v>0.04949494884502923</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03251709110625743</v>
+        <v>0.03223038905063535</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04097922238436243</v>
+        <v>0.0406615256304621</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09767247336815474</v>
+        <v>0.09639686257444775</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04339577089922379</v>
+        <v>0.04376237681213124</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05451994731729887</v>
+        <v>0.05692006809686971</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05776924147350247</v>
+        <v>0.05569521100579126</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07488671277163626</v>
+        <v>0.07211604396228084</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0650343084574512</v>
+        <v>0.06361043480850535</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07369571197566079</v>
+        <v>0.0739496653301938</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08285143071500489</v>
+        <v>0.08350655808608884</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1927343992556294</v>
+        <v>0.1937323361859848</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07745740689103212</v>
+        <v>0.07779464216097895</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06105076795648972</v>
+        <v>0.05977167202336352</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06545522054397621</v>
+        <v>0.06577959001834685</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.131662783737185</v>
+        <v>0.1321986723558365</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06625094296799784</v>
+        <v>0.06574847766919815</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006285405116974401</v>
+        <v>0.006105378148055941</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006942742753664691</v>
+        <v>0.006841245506191264</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01807238423336647</v>
+        <v>0.01797180216805472</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003392090904481737</v>
+        <v>0.003515119379219962</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04071431888581555</v>
+        <v>0.04140221749484563</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03739895554363604</v>
+        <v>0.03866494265425057</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1011641020587823</v>
+        <v>0.1017233784843546</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04067174601795008</v>
+        <v>0.03927086494006494</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03673731529637264</v>
+        <v>0.03670015818520216</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03359679877603317</v>
+        <v>0.03406032690588447</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08757108527426176</v>
+        <v>0.08941489429042196</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03244214354997325</v>
+        <v>0.03274219275698543</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03722860832540435</v>
+        <v>0.03584266781127947</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04240837683555891</v>
+        <v>0.03931075652287443</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06390893303652458</v>
+        <v>0.06312175564183121</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04429028623829637</v>
+        <v>0.0488331120181355</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06682169397992481</v>
+        <v>0.06762483544516082</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06469937840766729</v>
+        <v>0.06482367609923755</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1432388156282764</v>
+        <v>0.1448099601742427</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06825902938780086</v>
+        <v>0.06891230845479662</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0582295260130534</v>
+        <v>0.05771767769704583</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05639083147674869</v>
+        <v>0.05665286797621324</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1211708367574785</v>
+        <v>0.1236614445006816</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05557881077366006</v>
+        <v>0.05612085097667836</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02217596842200163</v>
+        <v>0.02265838241664877</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02476401807219693</v>
+        <v>0.02445573882168514</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03899736582172922</v>
+        <v>0.03857009059064052</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02641540847571</v>
+        <v>0.02708240063264001</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03838982353273044</v>
+        <v>0.0393858925853279</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04213423108182721</v>
+        <v>0.04201588865712631</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09908148200658923</v>
+        <v>0.09955422437848917</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04126216942360036</v>
+        <v>0.04190069606349021</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03232134885325647</v>
+        <v>0.03248764214887052</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03577103799314959</v>
+        <v>0.03524005771590951</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07251805674212704</v>
+        <v>0.07247287601659197</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03581242972784067</v>
+        <v>0.03617832121113868</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03380667805079862</v>
+        <v>0.03393807294747452</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03709415092812867</v>
+        <v>0.03675195681772143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05288926375213256</v>
+        <v>0.05298354611270888</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03929674738705622</v>
+        <v>0.03994026784884181</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05351457203601657</v>
+        <v>0.05361881904117695</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05698826232382524</v>
+        <v>0.05726158099828235</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1223618434498907</v>
+        <v>0.1209650821397101</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05323121171614009</v>
+        <v>0.05391184814043042</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04158458909358839</v>
+        <v>0.04168516973289772</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04484736481912471</v>
+        <v>0.04490678914181166</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08558356682301621</v>
+        <v>0.08531760459219753</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04469326819842698</v>
+        <v>0.04497680029334701</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4330</v>
+        <v>4124</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8954</v>
+        <v>8829</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7041</v>
+        <v>6817</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12115</v>
+        <v>12854</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3836</v>
+        <v>3761</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>13369</v>
+        <v>13204</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6363</v>
+        <v>6045</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7768</v>
+        <v>7455</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15846</v>
+        <v>15629</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>23101</v>
+        <v>23548</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>21178</v>
+        <v>21639</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15450</v>
+        <v>15238</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25191</v>
+        <v>25533</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21331</v>
+        <v>22565</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31496</v>
+        <v>33156</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11839</v>
+        <v>10369</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16226</v>
+        <v>16377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>33006</v>
+        <v>33401</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17279</v>
+        <v>16987</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>21615</v>
+        <v>21261</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>36022</v>
+        <v>36472</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>48298</v>
+        <v>48764</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>42377</v>
+        <v>41561</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6936</v>
+        <v>6616</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10218</v>
+        <v>9734</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7884</v>
+        <v>7499</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6640</v>
+        <v>6077</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7153</v>
+        <v>6944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8346</v>
+        <v>8791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9032</v>
+        <v>9778</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12411</v>
+        <v>11880</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>16540</v>
+        <v>17008</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21669</v>
+        <v>22347</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>20094</v>
+        <v>20207</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>20758</v>
+        <v>22362</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20453</v>
+        <v>21273</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27572</v>
+        <v>27058</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22556</v>
+        <v>22007</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24360</v>
+        <v>24275</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21441</v>
+        <v>21538</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25293</v>
+        <v>25420</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25203</v>
+        <v>25365</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>28486</v>
+        <v>27766</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>35746</v>
+        <v>36447</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>47092</v>
+        <v>46618</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>42233</v>
+        <v>41598</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>44512</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9649</v>
+        <v>9469</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12744</v>
+        <v>13313</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20019</v>
+        <v>20244</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12105</v>
+        <v>11711</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3966</v>
+        <v>4154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5031</v>
+        <v>5139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14918</v>
+        <v>15549</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5422</v>
+        <v>5389</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16628</v>
+        <v>16655</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21656</v>
+        <v>20192</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>40301</v>
+        <v>40146</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>20434</v>
+        <v>20281</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24597</v>
+        <v>24796</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31233</v>
+        <v>31166</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>42154</v>
+        <v>41550</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32374</v>
+        <v>30913</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16416</v>
+        <v>17723</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18417</v>
+        <v>18267</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34583</v>
+        <v>33992</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14698</v>
+        <v>15048</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>36042</v>
+        <v>37866</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42374</v>
+        <v>41576</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>71208</v>
+        <v>68736</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>39913</v>
+        <v>40856</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28453</v>
+        <v>26844</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17503</v>
+        <v>17682</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40497</v>
+        <v>40821</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24384</v>
+        <v>24039</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>22161</v>
+        <v>21464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>26050</v>
+        <v>26832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59272</v>
+        <v>60527</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27897</v>
+        <v>28357</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>54924</v>
+        <v>54335</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>48952</v>
+        <v>49744</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>106465</v>
+        <v>108147</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>57767</v>
+        <v>57925</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>53529</v>
+        <v>52845</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40277</v>
+        <v>40641</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>69108</v>
+        <v>69993</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>46770</v>
+        <v>46836</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>43678</v>
+        <v>45533</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50294</v>
+        <v>51543</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>92427</v>
+        <v>93757</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>48091</v>
+        <v>48842</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>88984</v>
+        <v>88947</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>81502</v>
+        <v>82222</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>154037</v>
+        <v>155601</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>86268</v>
+        <v>88232</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5903</v>
+        <v>6152</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10032</v>
+        <v>11618</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23156</v>
+        <v>23160</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16221</v>
+        <v>15719</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19911</v>
+        <v>20676</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>36161</v>
+        <v>35944</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>100775</v>
+        <v>102143</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>40872</v>
+        <v>41123</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>29893</v>
+        <v>29630</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>52130</v>
+        <v>51726</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>132732</v>
+        <v>130999</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>60703</v>
+        <v>61215</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19112</v>
+        <v>19954</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29497</v>
+        <v>28438</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46483</v>
+        <v>44763</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>36937</v>
+        <v>36128</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>41915</v>
+        <v>42059</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>63093</v>
+        <v>63592</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>142285</v>
+        <v>143022</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>64355</v>
+        <v>64636</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>56124</v>
+        <v>54949</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>83267</v>
+        <v>83679</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>178923</v>
+        <v>179651</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>92673</v>
+        <v>91970</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1874</v>
+        <v>1821</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1853</v>
+        <v>1826</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5189</v>
+        <v>5161</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>50842</v>
+        <v>51701</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>41489</v>
+        <v>42893</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>109462</v>
+        <v>110067</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>34338</v>
+        <v>33156</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>56831</v>
+        <v>56774</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>46237</v>
+        <v>46875</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>119900</v>
+        <v>122424</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>35086</v>
+        <v>35411</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11102</v>
+        <v>10688</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>11318</v>
+        <v>10491</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18351</v>
+        <v>18125</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10507</v>
+        <v>11585</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>83444</v>
+        <v>84447</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>71774</v>
+        <v>71912</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>154988</v>
+        <v>156688</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>57630</v>
+        <v>58181</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>90079</v>
+        <v>89287</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>77607</v>
+        <v>77968</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>165903</v>
+        <v>169314</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>60109</v>
+        <v>60695</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>72520</v>
+        <v>74097</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>84740</v>
+        <v>83685</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>132034</v>
+        <v>130588</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>90934</v>
+        <v>93231</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>129686</v>
+        <v>133050</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>149582</v>
+        <v>149162</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>349916</v>
+        <v>351585</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>150004</v>
+        <v>152325</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>214882</v>
+        <v>215988</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>249397</v>
+        <v>245695</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>501630</v>
+        <v>501318</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>253476</v>
+        <v>256065</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>110554</v>
+        <v>110984</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>126933</v>
+        <v>125762</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>179068</v>
+        <v>179388</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>135278</v>
+        <v>137493</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>180779</v>
+        <v>181131</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>202315</v>
+        <v>203286</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>432133</v>
+        <v>427200</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>193516</v>
+        <v>195991</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>276467</v>
+        <v>277136</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>312677</v>
+        <v>313092</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>592009</v>
+        <v>590169</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>316333</v>
+        <v>318340</v>
       </c>
     </row>
     <row r="32">
